--- a/src/main/resources/datasources/angleterre/employeAngleterre.xlsx
+++ b/src/main/resources/datasources/angleterre/employeAngleterre.xlsx
@@ -5,22 +5,23 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projets\java\classe\projetIntegrationWithMaven\src\main\resources\datasources\angleterre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\IdeaProjects\projetDintegrationGlobalHumanRessource\src\main\resources\datasources\angleterre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB95120-4CAC-48DA-8598-EAF939B6DA78}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2B06DAD-8F14-41D6-8C52-D803B82ED78F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Employes" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="77">
   <si>
     <t>ID</t>
   </si>
@@ -46,12 +47,6 @@
     <t>Adresse</t>
   </si>
   <si>
-    <t>Diop</t>
-  </si>
-  <si>
-    <t>Tidiani</t>
-  </si>
-  <si>
     <t>masculin</t>
   </si>
   <si>
@@ -64,44 +59,206 @@
     <t>dakar</t>
   </si>
   <si>
-    <t>alassane</t>
-  </si>
-  <si>
     <t>771004541</t>
   </si>
   <si>
     <t>tal@gmail.com</t>
   </si>
   <si>
-    <t>Diouf</t>
-  </si>
-  <si>
-    <t>aziz</t>
-  </si>
-  <si>
     <t>771003265</t>
   </si>
   <si>
     <t>ral@gmail.com</t>
   </si>
   <si>
-    <t>Ndiaye</t>
-  </si>
-  <si>
-    <t>MATAR</t>
-  </si>
-  <si>
     <t>771013265</t>
   </si>
   <si>
-    <t>Abdou aziz</t>
+    <t>Michel</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frederic </t>
+  </si>
+  <si>
+    <t>Pantin</t>
+  </si>
+  <si>
+    <t>Géraldin</t>
+  </si>
+  <si>
+    <t>Camaeu</t>
+  </si>
+  <si>
+    <t>feminin</t>
+  </si>
+  <si>
+    <t>duprey</t>
+  </si>
+  <si>
+    <t>Fidele</t>
+  </si>
+  <si>
+    <t>Françoise</t>
+  </si>
+  <si>
+    <t>Matthieu</t>
+  </si>
+  <si>
+    <t>Génevièvre</t>
+  </si>
+  <si>
+    <t>Dulong</t>
+  </si>
+  <si>
+    <t>Hapsatou</t>
+  </si>
+  <si>
+    <t>Ba</t>
+  </si>
+  <si>
+    <t>Abdoulaye</t>
+  </si>
+  <si>
+    <t>NDA</t>
+  </si>
+  <si>
+    <t>Kouely</t>
+  </si>
+  <si>
+    <t>MOUANGA</t>
+  </si>
+  <si>
+    <t>YANG</t>
+  </si>
+  <si>
+    <t>Alexandre</t>
+  </si>
+  <si>
+    <t>john</t>
+  </si>
+  <si>
+    <t>KOUMBA</t>
+  </si>
+  <si>
+    <t>Tcheung</t>
+  </si>
+  <si>
+    <t>celine</t>
+  </si>
+  <si>
+    <t>Koulibaly</t>
+  </si>
+  <si>
+    <t>Annabelle</t>
+  </si>
+  <si>
+    <t>Rossette</t>
+  </si>
+  <si>
+    <t>Depardieu</t>
+  </si>
+  <si>
+    <t>Lacritick</t>
+  </si>
+  <si>
+    <t>Willy</t>
+  </si>
+  <si>
+    <t>Rodrigurez</t>
+  </si>
+  <si>
+    <t>Hernandez</t>
+  </si>
+  <si>
+    <t>Saludad</t>
+  </si>
+  <si>
+    <t>Dimitrio</t>
+  </si>
+  <si>
+    <t>Mourad</t>
+  </si>
+  <si>
+    <t>Salima</t>
+  </si>
+  <si>
+    <t>Rachida</t>
+  </si>
+  <si>
+    <t>Mouton</t>
+  </si>
+  <si>
+    <t>EA1</t>
+  </si>
+  <si>
+    <t>EA2</t>
+  </si>
+  <si>
+    <t>EA3</t>
+  </si>
+  <si>
+    <t>EA4</t>
+  </si>
+  <si>
+    <t>EA5</t>
+  </si>
+  <si>
+    <t>EA6</t>
+  </si>
+  <si>
+    <t>EA7</t>
+  </si>
+  <si>
+    <t>EA8</t>
+  </si>
+  <si>
+    <t>EA9</t>
+  </si>
+  <si>
+    <t>EA10</t>
+  </si>
+  <si>
+    <t>EA11</t>
+  </si>
+  <si>
+    <t>EA12</t>
+  </si>
+  <si>
+    <t>EA13</t>
+  </si>
+  <si>
+    <t>EA14</t>
+  </si>
+  <si>
+    <t>EA15</t>
+  </si>
+  <si>
+    <t>EA16</t>
+  </si>
+  <si>
+    <t>EA17</t>
+  </si>
+  <si>
+    <t>EA18</t>
+  </si>
+  <si>
+    <t>EA19</t>
+  </si>
+  <si>
+    <t>EA20</t>
+  </si>
+  <si>
+    <t>EA21</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -114,6 +271,20 @@
       <sz val="14"/>
       <color indexed="10"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -133,14 +304,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -453,17 +627,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
@@ -498,214 +672,415 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>56</v>
       </c>
       <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2">
+        <v>40</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="D2">
-        <v>55</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
+      <c r="G3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3">
-        <v>30</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
+      <c r="A4" t="s">
+        <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D4">
         <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
+      <c r="A5" t="s">
+        <v>59</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6">
+        <v>56</v>
+      </c>
+      <c r="E6" t="s">
         <v>23</v>
       </c>
-      <c r="G5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6">
-        <v>35</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>7</v>
+      <c r="A7" t="s">
+        <v>61</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D7">
         <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>8</v>
+      <c r="A8" t="s">
+        <v>62</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D8">
         <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>9</v>
+      <c r="A9" t="s">
+        <v>63</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10">
+        <v>37</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11">
+        <v>29</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12">
+        <v>44</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13">
+        <v>32</v>
+      </c>
+      <c r="E13" t="s">
         <v>23</v>
       </c>
-      <c r="G9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" t="s">
-        <v>13</v>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14">
+        <v>32</v>
+      </c>
+      <c r="E14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15">
+        <v>55</v>
+      </c>
+      <c r="E15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16">
+        <v>48</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17">
+        <v>62</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18">
+        <v>37</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19">
+        <v>24</v>
+      </c>
+      <c r="E19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20">
+        <v>50</v>
+      </c>
+      <c r="E20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{6EEAEC36-20CA-4CE5-983C-411133DAC22B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/resources/datasources/angleterre/employeAngleterre.xlsx
+++ b/src/main/resources/datasources/angleterre/employeAngleterre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\IdeaProjects\projetDintegrationGlobalHumanRessource\src\main\resources\datasources\angleterre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2B06DAD-8F14-41D6-8C52-D803B82ED78F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EAE3968-7C13-40B7-A90F-D9EE8BBED863}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,11 @@
     <sheet name="Employes" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="107">
   <si>
     <t>ID</t>
   </si>
@@ -53,24 +52,12 @@
     <t>778563565</t>
   </si>
   <si>
-    <t>tdiop@gmail.com</t>
-  </si>
-  <si>
-    <t>dakar</t>
-  </si>
-  <si>
     <t>771004541</t>
   </si>
   <si>
-    <t>tal@gmail.com</t>
-  </si>
-  <si>
     <t>771003265</t>
   </si>
   <si>
-    <t>ral@gmail.com</t>
-  </si>
-  <si>
     <t>771013265</t>
   </si>
   <si>
@@ -251,7 +238,109 @@
     <t>EA20</t>
   </si>
   <si>
-    <t>EA21</t>
+    <t>Soumaila</t>
+  </si>
+  <si>
+    <t>Tram</t>
+  </si>
+  <si>
+    <t>771013266</t>
+  </si>
+  <si>
+    <t>771013267</t>
+  </si>
+  <si>
+    <t>771013268</t>
+  </si>
+  <si>
+    <t>771013269</t>
+  </si>
+  <si>
+    <t>771013270</t>
+  </si>
+  <si>
+    <t>771013271</t>
+  </si>
+  <si>
+    <t>771013272</t>
+  </si>
+  <si>
+    <t>771013273</t>
+  </si>
+  <si>
+    <t>771013274</t>
+  </si>
+  <si>
+    <t>771013275</t>
+  </si>
+  <si>
+    <t>771013276</t>
+  </si>
+  <si>
+    <t>771013277</t>
+  </si>
+  <si>
+    <t>Londres</t>
+  </si>
+  <si>
+    <t>tram@gmail.com</t>
+  </si>
+  <si>
+    <t>rachidam@gmail.com</t>
+  </si>
+  <si>
+    <t>smourad@gmail.com</t>
+  </si>
+  <si>
+    <t>al@gmail.com</t>
+  </si>
+  <si>
+    <t>fredpantin@gmail.com</t>
+  </si>
+  <si>
+    <t>gcamaeu@gmail.com</t>
+  </si>
+  <si>
+    <t>fideleduprey@gmail.com</t>
+  </si>
+  <si>
+    <t>fmatthieu@gmail.com</t>
+  </si>
+  <si>
+    <t>gdulong@gmail.com</t>
+  </si>
+  <si>
+    <t>michelmartin@gmail.com</t>
+  </si>
+  <si>
+    <t>hba@gmail.com</t>
+  </si>
+  <si>
+    <t>Anda@gmail.com</t>
+  </si>
+  <si>
+    <t>kmouang@gmail.com</t>
+  </si>
+  <si>
+    <t>yang@gmail.com</t>
+  </si>
+  <si>
+    <t>koumbajohn@gmail.com</t>
+  </si>
+  <si>
+    <t>celinetcheung@gmail.com</t>
+  </si>
+  <si>
+    <t>koulabily@gmail.com</t>
+  </si>
+  <si>
+    <t>depardieu@gmail.com</t>
+  </si>
+  <si>
+    <t>willylacritick@gmail.com</t>
+  </si>
+  <si>
+    <t>hernandezr@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -627,10 +716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,13 +762,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D2">
         <v>40</v>
@@ -691,21 +780,21 @@
         <v>9</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D3">
         <v>29</v>
@@ -714,50 +803,50 @@
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D4">
         <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="H4" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D5">
         <v>27</v>
@@ -766,76 +855,76 @@
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="H5" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D6">
         <v>56</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="H6" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D7">
         <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="H7" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D8">
         <v>35</v>
@@ -844,24 +933,24 @@
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="H8" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D9">
         <v>28</v>
@@ -870,24 +959,24 @@
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="H9" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D10">
         <v>37</v>
@@ -895,16 +984,25 @@
       <c r="E10" t="s">
         <v>8</v>
       </c>
+      <c r="F10" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H10" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D11">
         <v>29</v>
@@ -912,16 +1010,25 @@
       <c r="E11" t="s">
         <v>8</v>
       </c>
+      <c r="F11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H11" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D12">
         <v>44</v>
@@ -929,67 +1036,103 @@
       <c r="E12" t="s">
         <v>8</v>
       </c>
+      <c r="F12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H12" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D13">
         <v>32</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="F13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H13" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D14">
         <v>32</v>
       </c>
       <c r="E14" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="F14" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H14" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D15">
         <v>55</v>
       </c>
       <c r="E15" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="F15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H15" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D16">
         <v>48</v>
@@ -997,16 +1140,25 @@
       <c r="E16" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D17">
         <v>62</v>
@@ -1014,16 +1166,25 @@
       <c r="E17" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D18">
         <v>37</v>
@@ -1031,55 +1192,117 @@
       <c r="E18" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>82</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D19">
         <v>24</v>
       </c>
       <c r="E19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="F19" t="s">
+        <v>83</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D20">
         <v>50</v>
       </c>
       <c r="E20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="F20" t="s">
+        <v>84</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>76</v>
+        <v>71</v>
+      </c>
+      <c r="B21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21">
+        <v>35</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" t="s">
+        <v>85</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H21" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{6EEAEC36-20CA-4CE5-983C-411133DAC22B}"/>
+    <hyperlink ref="G21" r:id="rId2" xr:uid="{56191BD1-4F77-4739-8459-86E43F4EDFE7}"/>
+    <hyperlink ref="G20" r:id="rId3" xr:uid="{332E4EDC-BE68-4654-901D-6FE53927D9B0}"/>
+    <hyperlink ref="G19" r:id="rId4" xr:uid="{5C0FC23B-D396-44BF-80CE-28D8A1EA1C3B}"/>
+    <hyperlink ref="G18" r:id="rId5" xr:uid="{A3A51C4B-4C9A-4FB6-B229-8EB0FBA23A3D}"/>
+    <hyperlink ref="G3" r:id="rId6" xr:uid="{56F2CEAE-C300-4449-B4A1-323B6DA2A9F3}"/>
+    <hyperlink ref="G4" r:id="rId7" xr:uid="{9C956FD9-ED8D-4099-9376-13D06FE4FA94}"/>
+    <hyperlink ref="G5" r:id="rId8" xr:uid="{17E78B49-6A32-405C-8AA9-B43762160473}"/>
+    <hyperlink ref="G6" r:id="rId9" xr:uid="{B4C99901-7379-40BF-B3A1-BC11D7833BED}"/>
+    <hyperlink ref="G7" r:id="rId10" xr:uid="{D5C5C0A9-3330-45EF-BFDE-296B0FAA2029}"/>
+    <hyperlink ref="G8" r:id="rId11" xr:uid="{25C82BEE-6189-4B41-8AE8-035B8BB0E4D4}"/>
+    <hyperlink ref="G9" r:id="rId12" xr:uid="{F6743B90-523C-4975-8761-6EC5D5F730BC}"/>
+    <hyperlink ref="G10" r:id="rId13" xr:uid="{4D4E1E0F-403E-4242-BCD4-5227F3DC8079}"/>
+    <hyperlink ref="G11" r:id="rId14" xr:uid="{DE4F4327-A412-420D-97AF-390F5A97D89B}"/>
+    <hyperlink ref="G12" r:id="rId15" xr:uid="{22F98C64-8718-4D03-9500-3EBBD3728C3B}"/>
+    <hyperlink ref="G13" r:id="rId16" xr:uid="{463B1DA4-C073-429E-BA16-B30AB0C7DEC7}"/>
+    <hyperlink ref="G14" r:id="rId17" xr:uid="{DB209CB5-59C7-4065-B32F-586CBDC24D24}"/>
+    <hyperlink ref="G15" r:id="rId18" xr:uid="{19C1ECBA-1560-4402-A4E5-201C12387E23}"/>
+    <hyperlink ref="G16" r:id="rId19" xr:uid="{9E28B7E2-E885-4C94-8700-5CED6AA1097F}"/>
+    <hyperlink ref="G17" r:id="rId20" xr:uid="{7B0784C6-C145-4F72-95F7-442C84A4FC27}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/resources/datasources/angleterre/employeAngleterre.xlsx
+++ b/src/main/resources/datasources/angleterre/employeAngleterre.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projets\java\classe\projetIntegrationWithMaven\src\main\resources\datasources\angleterre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\IdeaProjects\projetDintegrationGlobalHumanRessource\src\main\resources\datasources\angleterre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97F1E53-2D66-4657-8B4E-3F5629327C97}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72029C0B-7658-4B40-81EB-325D07EBA0DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="3075" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Employes" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="82">
   <si>
     <t>ID</t>
   </si>
@@ -52,24 +52,12 @@
     <t>778563565</t>
   </si>
   <si>
-    <t>tdiop@gmail.com</t>
-  </si>
-  <si>
-    <t>dakar</t>
-  </si>
-  <si>
     <t>771004541</t>
   </si>
   <si>
-    <t>tal@gmail.com</t>
-  </si>
-  <si>
     <t>771003265</t>
   </si>
   <si>
-    <t>ral@gmail.com</t>
-  </si>
-  <si>
     <t>771013265</t>
   </si>
   <si>
@@ -188,6 +176,96 @@
   </si>
   <si>
     <t>Mouton</t>
+  </si>
+  <si>
+    <t>Londres</t>
+  </si>
+  <si>
+    <t>771013266</t>
+  </si>
+  <si>
+    <t>771013267</t>
+  </si>
+  <si>
+    <t>771013268</t>
+  </si>
+  <si>
+    <t>771013269</t>
+  </si>
+  <si>
+    <t>771013270</t>
+  </si>
+  <si>
+    <t>771013271</t>
+  </si>
+  <si>
+    <t>771013272</t>
+  </si>
+  <si>
+    <t>771013273</t>
+  </si>
+  <si>
+    <t>771013274</t>
+  </si>
+  <si>
+    <t>771013275</t>
+  </si>
+  <si>
+    <t>771013276</t>
+  </si>
+  <si>
+    <t>rachidamouton@gmail.com</t>
+  </si>
+  <si>
+    <t>smourad@gmail.com</t>
+  </si>
+  <si>
+    <t>dsaludad@gmail.com</t>
+  </si>
+  <si>
+    <t>hrodrigurez@gmail.com</t>
+  </si>
+  <si>
+    <t>wlacritik@gmail.com</t>
+  </si>
+  <si>
+    <t>rdepardieu@gmail.com</t>
+  </si>
+  <si>
+    <t>akoulibaly@gmail.com</t>
+  </si>
+  <si>
+    <t>ctcheung@gmail.com</t>
+  </si>
+  <si>
+    <t>jkoumba@gmail.com</t>
+  </si>
+  <si>
+    <t>mkouely@gmail.com</t>
+  </si>
+  <si>
+    <t>nabdoulaye@gmail.com</t>
+  </si>
+  <si>
+    <t>bhapsatou@gmail.com</t>
+  </si>
+  <si>
+    <t>gdulong@gmail.com</t>
+  </si>
+  <si>
+    <t>fmatthieu@gmail.com</t>
+  </si>
+  <si>
+    <t>fduprey@gmail.com</t>
+  </si>
+  <si>
+    <t>gcamaeu@gmail.com</t>
+  </si>
+  <si>
+    <t>mmartin@gmail.com</t>
+  </si>
+  <si>
+    <t>fpatin@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -566,7 +644,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,7 +655,7 @@
     <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -612,10 +690,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D2">
         <v>40</v>
@@ -627,10 +705,10 @@
         <v>9</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -638,10 +716,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D3">
         <v>29</v>
@@ -650,13 +728,13 @@
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -664,25 +742,25 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D4">
         <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="H4" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -690,10 +768,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D5">
         <v>27</v>
@@ -702,13 +780,13 @@
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="H5" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -716,25 +794,25 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D6">
         <v>56</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="H6" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -742,25 +820,25 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D7">
         <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="H7" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -768,10 +846,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D8">
         <v>35</v>
@@ -780,13 +858,13 @@
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="H8" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -794,10 +872,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D9">
         <v>28</v>
@@ -806,13 +884,13 @@
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="H9" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -820,16 +898,25 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D10">
         <v>37</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -837,16 +924,25 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D11">
         <v>29</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -854,16 +950,25 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D12">
         <v>44</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -871,16 +976,25 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D13">
         <v>32</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="F13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H13" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -888,16 +1002,25 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D14">
         <v>32</v>
       </c>
       <c r="E14" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="F14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -905,16 +1028,25 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D15">
         <v>55</v>
       </c>
       <c r="E15" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="F15" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -922,10 +1054,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D16">
         <v>48</v>
@@ -933,16 +1065,25 @@
       <c r="E16" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D17">
         <v>62</v>
@@ -950,16 +1091,25 @@
       <c r="E17" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D18">
         <v>37</v>
@@ -967,45 +1117,90 @@
       <c r="E18" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D19">
         <v>24</v>
       </c>
       <c r="E19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="F19" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D20">
         <v>50</v>
       </c>
       <c r="E20" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="F20" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H20" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{6EEAEC36-20CA-4CE5-983C-411133DAC22B}"/>
+    <hyperlink ref="G20" r:id="rId1" xr:uid="{6F08796A-9843-489F-B288-C6D8D65046A6}"/>
+    <hyperlink ref="G19" r:id="rId2" xr:uid="{7CA43833-20D7-4C60-AC79-6E3D734A1975}"/>
+    <hyperlink ref="G18" r:id="rId3" xr:uid="{940F4406-CFAD-436D-8842-D7DF32953A9B}"/>
+    <hyperlink ref="G17" r:id="rId4" xr:uid="{D335F62E-CB33-4770-A9CD-C798D7838038}"/>
+    <hyperlink ref="G16" r:id="rId5" xr:uid="{98BDAA97-B900-4770-87AB-E6792F21F016}"/>
+    <hyperlink ref="G15" r:id="rId6" xr:uid="{C3FA6A97-263A-4C2B-9A2E-BD12D27C9DED}"/>
+    <hyperlink ref="G14" r:id="rId7" xr:uid="{ABFC8636-E2E5-4D71-B9F7-D58F48AC5ACD}"/>
+    <hyperlink ref="G13" r:id="rId8" xr:uid="{6AC13085-C981-4088-86E7-F2E09EAF0F18}"/>
+    <hyperlink ref="G12" r:id="rId9" xr:uid="{A2F57E20-35DF-4BAA-821C-D49BF17FA703}"/>
+    <hyperlink ref="G11" r:id="rId10" xr:uid="{6A443F76-C56C-48C0-A5D3-7C462F6EE96F}"/>
+    <hyperlink ref="G10" r:id="rId11" xr:uid="{914F8437-B105-42BB-A157-56BCDE901FCD}"/>
+    <hyperlink ref="G9" r:id="rId12" xr:uid="{A7BFBA11-CF46-487A-B1C7-3042E27FBB52}"/>
+    <hyperlink ref="G8" r:id="rId13" xr:uid="{29EFF4B1-0DC9-44E1-A362-E9EBDC2F9593}"/>
+    <hyperlink ref="G7" r:id="rId14" xr:uid="{6CB2BED3-4230-4969-B75C-ABA6F51512CA}"/>
+    <hyperlink ref="G6" r:id="rId15" xr:uid="{B7D3D4BA-10DD-4140-A196-12E35E02AF9B}"/>
+    <hyperlink ref="G5" r:id="rId16" xr:uid="{94AB373C-627E-4D9C-8911-DFACF8305F24}"/>
+    <hyperlink ref="G2" r:id="rId17" display="tdiop@gmail.com" xr:uid="{6EEAEC36-20CA-4CE5-983C-411133DAC22B}"/>
+    <hyperlink ref="G4" r:id="rId18" xr:uid="{2AC93660-CD72-42C6-88E9-254C6E6D09EA}"/>
+    <hyperlink ref="G3" r:id="rId19" xr:uid="{9D5E3AB2-FCBE-465A-BF75-345BD1F56D17}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/resources/datasources/angleterre/employeAngleterre.xlsx
+++ b/src/main/resources/datasources/angleterre/employeAngleterre.xlsx
@@ -1204,4 +1204,189 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100654329B97B503A49AABBB110B3A1CE9F" ma:contentTypeVersion="6" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="cbeca0e78f2af041d481eb5f034a155f">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d8622fd7-cec1-4731-a423-3ed22d3b9aea" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bec814e9f48df65f8f22e78da7713096" ns2:_="">
+    <xsd:import namespace="d8622fd7-cec1-4731-a423-3ed22d3b9aea"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d8622fd7-cec1-4731-a423-3ed22d3b9aea" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Type de contenu"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titre"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D06BF9F-ACF3-415A-8404-4F566B899663}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2228393D-A05E-4E5C-938D-8027E0AC005A}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E95D3D3-EEE4-434A-9366-08E23555CA7F}"/>
 </file>